--- a/data/csv/11-02/CH11-02-xml.xlsx
+++ b/data/csv/11-02/CH11-02-xml.xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CH11-02'!$F:$F</definedName>
     <definedName name="_xlnm.Extract" localSheetId="0">'CH11-02'!$H:$H</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -3134,7 +3134,7 @@
   <dimension ref="A1:N1304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
